--- a/Mekong Emissions Predictions.xlsx
+++ b/Mekong Emissions Predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasmine\Downloads\hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D466971B-8C5D-4C56-95AD-BE518E8C74D1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2BCD31-E060-4C2B-9E93-88C89D5CF3EC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cambodia" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="ThailandP" sheetId="9" r:id="rId9"/>
     <sheet name="VietnamP" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -2047,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,10 +2679,10 @@
         <v>550</v>
       </c>
       <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
         <v>0.44544935183444762</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2690,10 +2690,10 @@
         <v>551</v>
       </c>
       <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
         <v>0.45313870565962422</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2701,10 +2701,10 @@
         <v>552</v>
       </c>
       <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
         <v>0.46082805948480082</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2712,10 +2712,10 @@
         <v>553</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
         <v>0.46851741330997743</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2723,10 +2723,10 @@
         <v>554</v>
       </c>
       <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
         <v>0.47620676713515403</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2856,7 +2856,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="B57" sqref="B57:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,10 +3486,10 @@
         <v>550</v>
       </c>
       <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
         <v>0.29817823004870658</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3497,10 +3497,10 @@
         <v>551</v>
       </c>
       <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
         <v>0.30592588193920095</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3508,10 +3508,10 @@
         <v>552</v>
       </c>
       <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
         <v>0.31367353382969532</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3519,10 +3519,10 @@
         <v>553</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
         <v>0.32142118572018968</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3530,10 +3530,10 @@
         <v>554</v>
       </c>
       <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
         <v>0.32916883761068405</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4172,10 +4172,10 @@
         <v>550</v>
       </c>
       <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
         <v>0.4297280740042233</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4183,10 +4183,10 @@
         <v>551</v>
       </c>
       <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
         <v>0.4428557863503656</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4194,10 +4194,10 @@
         <v>552</v>
       </c>
       <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
         <v>0.45598349869650789</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4205,10 +4205,10 @@
         <v>553</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
         <v>0.46911121104265024</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4216,10 +4216,10 @@
         <v>554</v>
       </c>
       <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
         <v>0.48223892338879254</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4232,7 +4232,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="B57" sqref="B57:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4858,10 +4858,10 @@
         <v>550</v>
       </c>
       <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
         <v>4.7368778080898091</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4869,10 +4869,10 @@
         <v>551</v>
       </c>
       <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
         <v>4.8518955845487781</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4880,10 +4880,10 @@
         <v>552</v>
       </c>
       <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
         <v>4.9669133610077472</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4891,10 +4891,10 @@
         <v>553</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
         <v>5.0819311374667162</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4902,10 +4902,10 @@
         <v>554</v>
       </c>
       <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
         <v>5.1969489139256853</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4917,8 +4917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5544,10 +5544,10 @@
         <v>550</v>
       </c>
       <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
         <v>1.8770092130915479</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5555,10 +5555,10 @@
         <v>551</v>
       </c>
       <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
         <v>1.9504526765144057</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5566,10 +5566,10 @@
         <v>552</v>
       </c>
       <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
         <v>2.0238961399372637</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -5577,10 +5577,10 @@
         <v>553</v>
       </c>
       <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
         <v>2.0973396033601213</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -5588,10 +5588,10 @@
         <v>554</v>
       </c>
       <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
         <v>2.1707830667829793</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
